--- a/data/extracted_data/raw_round1/timeseries/Houle_etal_2023_Fig2.xlsx
+++ b/data/extracted_data/raw_round1/timeseries/Houle_etal_2023_Fig2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/timeseries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round1/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E1E034-F173-1D49-8141-5ED91128A510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F8B22-AA9C-AA49-B995-90EC4C2A79F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="4800" windowWidth="26220" windowHeight="19720" xr2:uid="{8144ED7C-7BEA-C74F-91E4-7D358A1EBA82}"/>
+    <workbookView xWindow="19980" yWindow="4600" windowWidth="26220" windowHeight="19720" xr2:uid="{8144ED7C-7BEA-C74F-91E4-7D358A1EBA82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D954D40-BEA3-BF45-96D0-27270C875D85}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,6 +479,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="1">
         <v>43353</v>
       </c>
@@ -481,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.7079436594079198E-2</v>
+        <v>393.93939393939399</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -494,15 +503,18 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="1">
         <v>43353</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F50" si="0">E3-$E$2</f>
+        <f t="shared" ref="F3:F27" si="0">E3-$E$2</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8.2076137165221802E-2</v>
+        <v>696.969696969697</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -515,6 +527,9 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="1">
         <v>43353</v>
       </c>
@@ -523,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1093362459326</v>
+        <v>939.39393939393995</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,6 +551,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1">
         <v>43353</v>
       </c>
@@ -544,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.12876874416911199</v>
+        <v>1121.2121212121201</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -557,6 +575,9 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1">
         <v>43355</v>
       </c>
@@ -565,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0.11748242200832799</v>
+        <v>969.69696969696997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -578,6 +599,9 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1">
         <v>43355</v>
       </c>
@@ -586,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0.164175029012219</v>
+        <v>1424.2424242424199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -599,6 +623,9 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="1">
         <v>43355</v>
       </c>
@@ -607,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0.199194484265137</v>
+        <v>1696.9696969696899</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -620,6 +647,9 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="1">
         <v>43355</v>
       </c>
@@ -628,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0.26923339477097402</v>
+        <v>2333.3333333333298</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,6 +671,9 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="1">
         <v>43357</v>
       </c>
@@ -649,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>0.30461692493230402</v>
+        <v>2757.5757575757498</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,6 +695,9 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="1">
         <v>43357</v>
       </c>
@@ -670,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0.42913054360934699</v>
+        <v>3878.7878787878699</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -683,6 +719,9 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="1">
         <v>43357</v>
       </c>
@@ -691,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>0.49136459826609302</v>
+        <v>4454.5454545454504</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -704,6 +743,9 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
       <c r="E13" s="1">
         <v>43357</v>
       </c>
@@ -712,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0.71317723621635098</v>
+        <v>6424.2424242424204</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -725,6 +767,9 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="1">
         <v>43357</v>
       </c>
@@ -733,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>0.89216556306460004</v>
+        <v>8060.6060606060601</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,6 +791,9 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="1">
         <v>43364</v>
       </c>
@@ -754,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="G15">
-        <v>0.19696452545111101</v>
+        <v>3636.3636363636301</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -767,6 +815,9 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
       <c r="E16" s="1">
         <v>43364</v>
       </c>
@@ -775,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>0.23198398070402901</v>
+        <v>3575.7575757575701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -788,6 +839,9 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="1">
         <v>43364</v>
       </c>
@@ -796,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>0.29032698477711699</v>
+        <v>2575.7575757575701</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,6 +863,9 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="1">
         <v>43364</v>
       </c>
@@ -817,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>0.39540810521764802</v>
+        <v>2121.2121212121201</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,6 +887,9 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="1">
         <v>43364</v>
       </c>
@@ -838,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0.403190206384963</v>
+        <v>1787.87878787878</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,6 +911,9 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="1">
         <v>43371</v>
       </c>
@@ -859,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="G20">
-        <v>7.3725168953512304E-2</v>
+        <v>727.27272727272702</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -872,6 +935,9 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="1">
         <v>43371</v>
       </c>
@@ -880,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <v>8.5398320704484998E-2</v>
+        <v>666.66666666666697</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,6 +959,9 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="1">
         <v>43385</v>
       </c>
@@ -901,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="G22">
-        <v>5.6841195075886697E-2</v>
+        <v>515.15151515151501</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -914,6 +983,9 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="1">
         <v>43385</v>
       </c>
@@ -922,7 +994,7 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>6.4623296243201997E-2</v>
+        <v>424.24242424242499</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -935,6 +1007,9 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="1">
         <v>43416</v>
       </c>
@@ -943,7 +1018,7 @@
         <v>63</v>
       </c>
       <c r="G24">
-        <v>2.3642114365030199E-2</v>
+        <v>666.66666666666697</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -956,6 +1031,9 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" s="1">
         <v>43416</v>
       </c>
@@ -964,7 +1042,7 @@
         <v>63</v>
       </c>
       <c r="G25">
-        <v>3.5315266116003198E-2</v>
+        <v>424.24242424242499</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -977,6 +1055,9 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
       <c r="E26" s="1">
         <v>43416</v>
       </c>
@@ -985,7 +1066,7 @@
         <v>63</v>
       </c>
       <c r="G26">
-        <v>4.6988417866975898E-2</v>
+        <v>303.030303030303</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -998,6 +1079,9 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
       <c r="E27" s="1">
         <v>43416</v>
       </c>
@@ -1006,7 +1090,7 @@
         <v>63</v>
       </c>
       <c r="G27">
-        <v>7.8094067854461005E-2</v>
+        <v>181.81818181818099</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,15 +1103,18 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="1">
         <v>43353</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="0"/>
+        <f>E28-$E$28</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.82356428706168505</v>
+        <v>-0.63380281690137896</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,15 +1127,18 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" s="1">
         <v>43355</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F29:F48" si="1">E29-$E$28</f>
         <v>2</v>
       </c>
       <c r="G29">
-        <v>12.689788988600499</v>
+        <v>13.3098591549295</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,15 +1151,18 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="1">
         <v>43355</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30">
-        <v>14.1644433664807</v>
+        <v>14.577464788732399</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,15 +1175,18 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
       <c r="E31" s="1">
         <v>43355</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G31">
-        <v>20.800388066941501</v>
+        <v>21.549295774647799</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,15 +1199,18 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="1">
         <v>43355</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G32">
-        <v>28.173659956342402</v>
+        <v>27.2535211267605</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,15 +1223,18 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" s="1">
         <v>43357</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G33">
-        <v>19.394723367558601</v>
+        <v>131.19718309859101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,15 +1247,18 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
       <c r="E34" s="1">
         <v>43357</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G34">
-        <v>22.344032123319</v>
+        <v>148.309859154929</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1166,15 +1271,18 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
       <c r="E35" s="1">
         <v>43357</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G35">
-        <v>127.04449295281201</v>
+        <v>160.98591549295699</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,15 +1295,18 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
       <c r="E36" s="1">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>147.68965424313399</v>
+        <v>156.54929577464699</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,15 +1319,18 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
       <c r="E37" s="1">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>160.96154364405601</v>
+        <v>114.718309859154</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1229,15 +1343,18 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
       <c r="E38" s="1">
         <v>43364</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G38">
-        <v>33.645403832160902</v>
+        <v>86.197183098591495</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1250,15 +1367,18 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
       <c r="E39" s="1">
         <v>43364</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G39">
-        <v>73.461072034925905</v>
+        <v>72.887323943661897</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1271,15 +1391,18 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" s="1">
         <v>43364</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G40">
-        <v>86.728649580941493</v>
+        <v>33.591549295774598</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1292,15 +1415,18 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
       <c r="E41" s="1">
-        <v>43364</v>
+        <v>43371</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G41">
-        <v>114.74708276066499</v>
+        <v>41.197183098591502</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1313,15 +1439,18 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
       <c r="E42" s="1">
-        <v>43364</v>
+        <v>43371</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G42">
-        <v>156.77473253024999</v>
+        <v>38.661971830985898</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1334,15 +1463,18 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
       <c r="E43" s="1">
         <v>43371</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G43">
-        <v>25.771956773654399</v>
+        <v>25.352112676056301</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1355,15 +1487,18 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
       <c r="E44" s="1">
-        <v>43371</v>
+        <v>43385</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="G44">
-        <v>37.569191796695897</v>
+        <v>34.8591549295774</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1376,15 +1511,18 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
       <c r="E45" s="1">
-        <v>43371</v>
+        <v>43385</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="G45">
-        <v>41.255827741396402</v>
+        <v>15.211267605633701</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1397,15 +1535,18 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
       <c r="E46" s="1">
-        <v>43385</v>
+        <v>43415</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="G46">
-        <v>16.669631066914501</v>
+        <v>20.281690140845001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1418,15 +1559,18 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
       <c r="E47" s="1">
-        <v>43385</v>
+        <v>43415</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="G47">
-        <v>35.835826124450797</v>
+        <v>16.478873239436599</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1439,112 +1583,86 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
       <c r="E48" s="1">
         <v>43415</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="G48">
-        <v>2.9838035950089599</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>43415</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G49">
-        <v>19.205001751690901</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43415</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G50">
-        <v>22.154310507451299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.63380281690137896</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E49" s="1"/>
+      <c r="F49" s="3"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E50" s="1"/>
+      <c r="F50" s="3"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>

--- a/data/extracted_data/raw_round1/timeseries/Houle_etal_2023_Fig2.xlsx
+++ b/data/extracted_data/raw_round1/timeseries/Houle_etal_2023_Fig2.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw_round1/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F8B22-AA9C-AA49-B995-90EC4C2A79F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512493ED-2990-F944-B841-D37FE3F5EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="4600" windowWidth="26220" windowHeight="19720" xr2:uid="{8144ED7C-7BEA-C74F-91E4-7D358A1EBA82}"/>
+    <workbookView xWindow="9620" yWindow="980" windowWidth="26220" windowHeight="19720" xr2:uid="{8144ED7C-7BEA-C74F-91E4-7D358A1EBA82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -133,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D954D40-BEA3-BF45-96D0-27270C875D85}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
